--- a/data/trans_camb/P23_5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 6,06</t>
+          <t>-5,43; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,13</t>
+          <t>-6,85; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 7,91</t>
+          <t>-6,13; 3,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,22</t>
+          <t>-1,0; 14,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,25</t>
+          <t>-4,31; 12,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 7,98</t>
+          <t>-4,99; 3,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 3,68</t>
+          <t>-5,06; 3,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,91</t>
+          <t>-7,24; 0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 5,83</t>
+          <t>1,5; 11,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 8,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 3,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 0,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 11,27</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 8,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,76%</t>
+          <t>-29,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>-29,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>151,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,48%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,05%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>-14,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,17%</t>
+          <t>-66,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>475,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-24,11%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-45,4%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>234,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>43,9%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 262,38</t>
+          <t>-68,72; 210,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,57; 143,87</t>
+          <t>-86,13; 204,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 272,42</t>
+          <t>-84,68; 183,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,45; 383,73</t>
+          <t>-38,29; 1099,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 280,3</t>
+          <t>-62,37; 457,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,35; 503,05</t>
+          <t>-81,21; 299,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 136,13</t>
+          <t>-78,65; 251,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,87; 78,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 209,01</t>
+          <t>1,34; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-62,99; 261,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-56,12; 132,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-73,65; 89,18</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-82,32; 49,94</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 807,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-36,78; 246,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 11,89</t>
+          <t>-1,28; 12,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,53</t>
+          <t>-4,52; 0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,95</t>
+          <t>-2,7; 4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,34</t>
+          <t>3,18; 18,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,75</t>
+          <t>0,54; 16,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,03</t>
+          <t>-3,69; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,91</t>
+          <t>-2,43; 3,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,17</t>
+          <t>-2,04; 4,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,35</t>
+          <t>-2,53; 5,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 5,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 7,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 1,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,12</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 10,9</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,35; 9,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>122,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,78%</t>
+          <t>-76,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>113,55%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,53%</t>
+          <t>420,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>169,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>65,83%</t>
+          <t>-43,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,13%</t>
+          <t>54,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>47,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-28,38%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>208,71%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>109,36%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1265,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 1499,67</t>
+          <t>-67,3; 2148,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 961,06</t>
+          <t>-100,0; 634,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>18,53; 2364,53</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 804,97</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-78,95; 457,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-63,66; 645,76</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,36; 464,42</t>
+          <t>-77,7; 496,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 124,68</t>
+          <t>-79,57; 602,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 454,55</t>
+          <t>-61,71; 375,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-53,67; 298,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-61,79; 601,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-76,76; 134,55</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-58,03; 269,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 591,58</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 365,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,61</t>
+          <t>-5,1; 3,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 0,81</t>
+          <t>-6,22; 0,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 7,64</t>
+          <t>-4,84; 2,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,81</t>
+          <t>-2,2; 7,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 4,72</t>
+          <t>-6,23; 3,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,3</t>
+          <t>-2,5; 2,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,12</t>
+          <t>-0,92; 5,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,28</t>
+          <t>-3,46; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 5,44</t>
+          <t>-0,69; 5,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 3,66</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 1,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 1,89</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 1,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 5,5</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 2,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-23,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-41,92%</t>
+          <t>-47,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>-18,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,94%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,31%</t>
+          <t>98,19%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,24%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-18,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>70,32%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,69; 116,59</t>
+          <t>-68,84; 126,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,07; 32,0</t>
+          <t>-80,5; 33,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 270,41</t>
+          <t>-66,61; 87,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 209,7</t>
+          <t>-39,53; 259,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 350,64</t>
+          <t>-62,01; 85,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 313,95</t>
+          <t>-60,18; 172,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 79,92</t>
+          <t>-29,56; 351,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 83,82</t>
+          <t>-77,56; 117,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 189,92</t>
+          <t>-32,73; 458,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-63,51; 130,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,85; 75,23</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-50,43; 66,15</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-58,45; 56,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 231,96</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-47,17; 60,44</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 0,84</t>
+          <t>-9,85; 1,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 1,98</t>
+          <t>-9,81; 1,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 4,83</t>
+          <t>-7,95; 3,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 4,15</t>
+          <t>1,16; 12,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 6,46</t>
+          <t>0,16; 11,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,37</t>
+          <t>-3,32; 4,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,56</t>
+          <t>-1,43; 6,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 3,2</t>
+          <t>-2,41; 6,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,15</t>
+          <t>-4,17; 4,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 4,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 1,77</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 2,85</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 3,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 7,41</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 7,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-39,73%</t>
+          <t>-41,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>-32,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-16,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>125,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,47%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>51,62%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>41,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-80,8; 28,43</t>
+          <t>-79,48; 34,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,58; 54,57</t>
+          <t>-77,68; 43,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 110,64</t>
+          <t>-70,38; 89,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 94,06</t>
+          <t>10,72; 362,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 148,5</t>
+          <t>-3,3; 271,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 144,93</t>
+          <t>-40,83; 102,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 33,75</t>
+          <t>-18,33; 148,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 73,2</t>
+          <t>-29,39; 147,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 86,6</t>
+          <t>-45,16; 84,05</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-48,17; 87,83</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-51,52; 40,37</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-41,83; 63,53</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-38,4; 71,89</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 143,6</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 130,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,31</t>
+          <t>-5,0; 7,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 2,13</t>
+          <t>-7,37; 2,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 13,33</t>
+          <t>-3,38; 9,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 5,73</t>
+          <t>-6,68; 4,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,79</t>
+          <t>-11,69; 0,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 9,24</t>
+          <t>-3,73; 4,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,79</t>
+          <t>-4,81; 4,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,59</t>
+          <t>-2,27; 8,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,34</t>
+          <t>-3,44; 9,67</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 8,49</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 5,08</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 2,37</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 6,89</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 5,83</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>23,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-28,7%</t>
+          <t>-26,14%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>125,91%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>-39,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-15,79%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>35,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-14,28%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>46,68%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-10,62%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-62,46; 214,21</t>
+          <t>-61,07; 235,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 78,7</t>
+          <t>-75,38; 85,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 417,01</t>
+          <t>-52,99; 285,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 170,48</t>
+          <t>-58,26; 97,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 115,59</t>
+          <t>-68,9; 10,85</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 254,67</t>
+          <t>-49,31; 118,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 113,6</t>
+          <t>-58,87; 129,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 39,25</t>
+          <t>-32,49; 223,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>6,18; 235,44</t>
+          <t>-28,27; 165,91</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-29,19; 131,75</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-39,94; 132,01</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-52,36; 59,85</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-20,35; 174,89</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; 96,47</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-42,06; 37,03</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,64</t>
+          <t>-3,37; 6,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 6,27</t>
+          <t>-2,54; 6,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 11,04</t>
+          <t>-4,97; 3,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 0,78</t>
+          <t>-0,62; 10,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,37</t>
+          <t>-8,13; 5,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 5,22</t>
+          <t>-11,75; -0,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,52</t>
+          <t>-8,5; 3,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,71</t>
+          <t>-9,56; 3,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,1</t>
+          <t>-3,8; 7,76</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 8,0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 0,89</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 3,24</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 1,83</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 7,12</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 4,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>106,31%</t>
+          <t>-35,47%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-43,53%</t>
+          <t>181,66%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,06%</t>
+          <t>-53,33%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-27,26%</t>
+          <t>-20,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-22,34%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>30,39%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-34,73%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-3,91%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-26,11%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>63,52%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 295,88</t>
+          <t>-67,68; 306,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,42; 320,15</t>
+          <t>-52,31; 363,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 516,83</t>
+          <t>-100,0; 261,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-79,21; 26,9</t>
+          <t>-65,0; 1176,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 101,93</t>
+          <t>-66,32; 115,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,36; 114,4</t>
+          <t>-81,84; -2,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-64,8; 49,69</t>
+          <t>-69,84; 69,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 90,41</t>
+          <t>-71,26; 62,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 151,26</t>
+          <t>-42,84; 206,08</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-52,41; 259,78</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-68,77; 25,63</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-49,56; 72,24</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-66,52; 48,33</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-18,45; 233,07</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-40,11; 107,06</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,59</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,08</t>
+          <t>-2,12; 2,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,36</t>
+          <t>-3,3; 0,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,01</t>
+          <t>-2,45; 1,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,97</t>
+          <t>2,58; 7,39</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,13</t>
+          <t>-1,11; 4,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,75</t>
+          <t>-2,53; 0,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,06</t>
+          <t>-1,39; 2,12</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 0,87</t>
+          <t>-1,85; 1,93</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,76</t>
+          <t>0,33; 4,47</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 3,04</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 0,89</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 0,76</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 1,07</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 5,22</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,27</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-28,04%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>112,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>46,78%</t>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-8,02%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>75,64%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 54,06</t>
+          <t>-36,78; 53,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 8,44</t>
+          <t>-52,77; 7,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,48; 125,21</t>
+          <t>-41,25; 39,1</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 25,82</t>
+          <t>46,63; 219,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 56,16</t>
+          <t>-12,47; 69,8</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 93,41</t>
+          <t>-39,9; 18,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 25,78</t>
+          <t>-23,59; 52,78</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 20,97</t>
+          <t>-32,44; 47,12</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>13,52; 92,12</t>
+          <t>6,4; 108,87</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-18,8; 57,26</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-31,59; 20,89</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-32,3; 17,81</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-28,44; 25,33</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>37,09; 124,16</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 51,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
